--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Myoc-Fzd3.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H2">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J2">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N2">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P2">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q2">
-        <v>0.092859988896</v>
+        <v>0.01845729597</v>
       </c>
       <c r="R2">
-        <v>0.835739900064</v>
+        <v>0.16611566373</v>
       </c>
       <c r="S2">
-        <v>0.0001031138846876666</v>
+        <v>3.250502685179773E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001031138846876666</v>
+        <v>3.250502685179773E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H3">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J3">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.922749</v>
       </c>
       <c r="O3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P3">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q3">
-        <v>0.107479958022</v>
+        <v>0.03500848189399999</v>
       </c>
       <c r="R3">
-        <v>0.9673196221980001</v>
+        <v>0.315076337046</v>
       </c>
       <c r="S3">
-        <v>0.0001193482373784039</v>
+        <v>6.165321539269573E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001193482373784039</v>
+        <v>6.165321539269573E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.349434</v>
+        <v>0.113818</v>
       </c>
       <c r="H4">
-        <v>1.048302</v>
+        <v>0.341454</v>
       </c>
       <c r="I4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="J4">
-        <v>0.0009963999680650763</v>
+        <v>0.0003230180320166274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N4">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P4">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q4">
-        <v>0.696975581934</v>
+        <v>0.1299532190733333</v>
       </c>
       <c r="R4">
-        <v>6.272780237406</v>
+        <v>1.16957897166</v>
       </c>
       <c r="S4">
-        <v>0.0007739378459990057</v>
+        <v>0.0002288597897721339</v>
       </c>
       <c r="T4">
-        <v>0.0007739378459990057</v>
+        <v>0.0002288597897721339</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J5">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N5">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O5">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P5">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q5">
-        <v>92.73866825619199</v>
+        <v>56.59193109821999</v>
       </c>
       <c r="R5">
-        <v>834.6480143057279</v>
+        <v>509.3273798839799</v>
       </c>
       <c r="S5">
-        <v>0.1029791674363281</v>
+        <v>0.09966369087501434</v>
       </c>
       <c r="T5">
-        <v>0.1029791674363281</v>
+        <v>0.09966369087501434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J6">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.922749</v>
       </c>
       <c r="O6">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P6">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q6">
         <v>107.339536539844</v>
@@ -818,10 +818,10 @@
         <v>966.055828858596</v>
       </c>
       <c r="S6">
-        <v>0.119192310108857</v>
+        <v>0.1890349769087629</v>
       </c>
       <c r="T6">
-        <v>0.119192310108857</v>
+        <v>0.1890349769087629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1046.932404</v>
       </c>
       <c r="I7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599795</v>
       </c>
       <c r="J7">
-        <v>0.9950981815468188</v>
+        <v>0.9904058666599794</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N7">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O7">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P7">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q7">
-        <v>696.0649903591345</v>
+        <v>398.4496771219067</v>
       </c>
       <c r="R7">
-        <v>6264.584913232211</v>
+        <v>3586.04709409716</v>
       </c>
       <c r="S7">
-        <v>0.7729267040016338</v>
+        <v>0.7017071988762023</v>
       </c>
       <c r="T7">
-        <v>0.7729267040016338</v>
+        <v>0.7017071988762021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H8">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J8">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.265744</v>
+        <v>0.162165</v>
       </c>
       <c r="N8">
-        <v>0.7972319999999999</v>
+        <v>0.486495</v>
       </c>
       <c r="O8">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="P8">
-        <v>0.1034864391735229</v>
+        <v>0.1006291402646046</v>
       </c>
       <c r="Q8">
-        <v>0.3639674114666667</v>
+        <v>0.52975283808</v>
       </c>
       <c r="R8">
-        <v>3.2757067032</v>
+        <v>4.767775542719999</v>
       </c>
       <c r="S8">
-        <v>0.0004041578525071201</v>
+        <v>0.0009329443627384416</v>
       </c>
       <c r="T8">
-        <v>0.0004041578525071202</v>
+        <v>0.0009329443627384415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H9">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J9">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.922749</v>
       </c>
       <c r="O9">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="P9">
-        <v>0.1197794472135201</v>
+        <v>0.1908661724170313</v>
       </c>
       <c r="Q9">
-        <v>0.4212708031833333</v>
+        <v>1.004797380416</v>
       </c>
       <c r="R9">
-        <v>3.79143722865</v>
+        <v>9.043176423743999</v>
       </c>
       <c r="S9">
-        <v>0.0004677888672846707</v>
+        <v>0.00176954229287564</v>
       </c>
       <c r="T9">
-        <v>0.0004677888672846708</v>
+        <v>0.00176954229287564</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.369616666666667</v>
+        <v>3.266752</v>
       </c>
       <c r="H10">
-        <v>4.10885</v>
+        <v>9.800255999999999</v>
       </c>
       <c r="I10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003845</v>
       </c>
       <c r="J10">
-        <v>0.00390541848511611</v>
+        <v>0.009271115308003843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.994584333333333</v>
+        <v>1.141763333333333</v>
       </c>
       <c r="N10">
-        <v>5.983752999999999</v>
+        <v>3.42529</v>
       </c>
       <c r="O10">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="P10">
-        <v>0.7767341136129571</v>
+        <v>0.7085046873183641</v>
       </c>
       <c r="Q10">
-        <v>2.731815946005555</v>
+        <v>3.729857652693334</v>
       </c>
       <c r="R10">
-        <v>24.58634351405</v>
+        <v>33.56871887424</v>
       </c>
       <c r="S10">
-        <v>0.003033471765324319</v>
+        <v>0.006568628652389763</v>
       </c>
       <c r="T10">
-        <v>0.003033471765324319</v>
+        <v>0.006568628652389762</v>
       </c>
     </row>
   </sheetData>
